--- a/LR3/table_1_70.xlsx
+++ b/LR3/table_1_70.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AABFEE-3CA4-4A44-8E00-47688984465A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4470FE7-51D5-4836-8891-56E530826246}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,34 +539,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -615,14 +615,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>77</v>
       </c>
       <c r="E4" s="1">
@@ -660,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -795,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -930,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1020,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1110,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1200,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1245,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1290,7 +1290,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1335,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1380,7 +1380,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1425,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1470,7 +1470,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1515,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1560,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1605,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1695,7 +1695,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1740,7 +1740,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1785,7 +1785,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1830,7 +1830,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1875,7 +1875,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1920,7 +1920,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1965,7 +1965,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2010,7 +2010,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2055,7 +2055,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2100,7 +2100,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2145,7 +2145,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3,C38)</f>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3,H38)</f>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3,K38)</f>

--- a/LR3/table_1_70.xlsx
+++ b/LR3/table_1_70.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4470FE7-51D5-4836-8891-56E530826246}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA419EB-5C9A-42C9-9682-8B10A87DCD8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,7 +2218,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3,C38)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
       <c r="D41" s="1"/>
@@ -2235,7 +2235,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H3,H38)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -2252,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3,K38)</f>
+        <f>MAX(K3:K38)</f>
         <v>5390</v>
       </c>
       <c r="D43" s="1"/>
